--- a/biology/Écologie/Équations_de_compétition_de_Lotka-Volterra/Équations_de_compétition_de_Lotka-Volterra.xlsx
+++ b/biology/Écologie/Équations_de_compétition_de_Lotka-Volterra/Équations_de_compétition_de_Lotka-Volterra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
+          <t>Équations_de_compétition_de_Lotka-Volterra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les équations de compétition de Lotka-Volterra sont un modèle  phénoménologique simple de dynamique des populations en compétition. Leur expression est similaire à celle des équations de prédation de Lotka-Volterra pour la prédation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
+          <t>Équations_de_compétition_de_Lotka-Volterra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deux espèces
-Soient deux populations en compétition 
+          <t>Deux espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soient deux populations en compétition 
           N
             1
     {\displaystyle N_{1}}
@@ -631,9 +648,44 @@
           α
             21
     {\displaystyle \alpha _{21}}
- n'ont pas le même signe, une des deux populations croit aux dépens de l'autre (ce qui peut s'interpréter comme de la prédation ou du parasitisme), si les deux termes sont négatifs, les deux populations ont un effet positif sur l'autre (ce qui peut s'interpréter comme du mutualisme, mais est rarement utilisé en pratique car cela peut permettre aux populations de croître indéfiniment). Une classification complète des dynamiques de ce système est disponible[1].
-Nombre quelconque d'espèces
-Ce modèle peut être généralisé à un nombre quelconque d'espèces en compétition :
+ n'ont pas le même signe, une des deux populations croit aux dépens de l'autre (ce qui peut s'interpréter comme de la prédation ou du parasitisme), si les deux termes sont négatifs, les deux populations ont un effet positif sur l'autre (ce qui peut s'interpréter comme du mutualisme, mais est rarement utilisé en pratique car cela peut permettre aux populations de croître indéfiniment). Une classification complète des dynamiques de ce système est disponible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Équations_de_compétition_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Formulation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nombre quelconque d'espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce modèle peut être généralisé à un nombre quelconque d'espèces en compétition :
               d
                 N
                   i
@@ -680,35 +732,43 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Équations_de_compétition_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Conditions pour la coexistence stable de deux espèces
-Étude graphique par analyse des isoclines
-Le comportement asymptotique du modèle à deux espèces peut être facilement exploré en faisant une analyse des isoclines[2] : une analyse graphique de la position des isoclines-zéro (courbes le long desquelles la croissance d'une espèce est nulle) dans l'espace des phases qui est ici le plan 
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Conditions pour la coexistence stable de deux espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Étude graphique par analyse des isoclines</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le comportement asymptotique du modèle à deux espèces peut être facilement exploré en faisant une analyse des isoclines : une analyse graphique de la position des isoclines-zéro (courbes le long desquelles la croissance d'une espèce est nulle) dans l'espace des phases qui est ici le plan 
         (
           N
             1
@@ -754,7 +814,7 @@
 Le signe du taux de croissance effectif de l'espèce 
         i
     {\displaystyle i}
- change de part et d'autre de l'isocline (positif en dessous, négatif au-dessus) ainsi la population d'une espèce non éteinte tend vers son isocline non triviale[3].
+ change de part et d'autre de l'isocline (positif en dessous, négatif au-dessus) ainsi la population d'une espèce non éteinte tend vers son isocline non triviale.
 On remarque tout de suite que si l'une des deux espèces est éteinte (
           N
             i
@@ -795,9 +855,47 @@
     {\displaystyle 2}
 ,
 coexistence stable des deux espèces,
-exclusion compétitive d'une des deux espèces en fonction des conditions initiales.
-Stabilité des équilibres
-Les équilibres du système sont les points où les deux dérivées s'annulent simultanément (il s'agit des points d'intersection entre les isoclines des deux espèces). Il y en a au moins trois : 
+exclusion compétitive d'une des deux espèces en fonction des conditions initiales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Équations_de_compétition_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Conditions pour la coexistence stable de deux espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Stabilité des équilibres</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les équilibres du système sont les points où les deux dérivées s'annulent simultanément (il s'agit des points d'intersection entre les isoclines des deux espèces). Il y en a au moins trois : 
         (
         0
         ,
@@ -830,7 +928,7 @@
         )
     {\displaystyle (N_{1},N_{2})}
  (dans les cas 3 ou 4).
-La stabilité des équilibres peut être étudiée par le biais du signe des valeurs propres de la matrice jacobienne du système en ces points. Cela permet de formaliser les conditions de la coexistence stable des deux espèces et forme un des fondements de la théorie de la coexistence[4].
+La stabilité des équilibres peut être étudiée par le biais du signe des valeurs propres de la matrice jacobienne du système en ces points. Cela permet de formaliser les conditions de la coexistence stable des deux espèces et forme un des fondements de la théorie de la coexistence.
 Pour plus de simplicité on se place dans le cas où 
           r
             1
@@ -949,7 +1047,7 @@
           α
             12
     {\displaystyle \alpha _{12}}
-) soit plus faible que la compétition intraspécifique (dont l'intensité vaut ici 1, mais que l'on peut[5] paramétrer par 
+) soit plus faible que la compétition intraspécifique (dont l'intensité vaut ici 1, mais que l'on peut paramétrer par 
           α
             11
         =
@@ -969,38 +1067,40 @@
           K
             2
     {\displaystyle \alpha _{22}=K_{1}/K_{2}}
-). L'intensité de la compétition interspécifique dépend des niches écologique respectives des deux espèces[4].
-Dynamiques des systèmes comprenant plus de deux espèces</t>
+). L'intensité de la compétition interspécifique dépend des niches écologique respectives des deux espèces.
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Équations_de_compétition_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_comp%C3%A9tition_de_Lotka-Volterra</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Interprétations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le modèle de compétition de Lotka-Volterra est phénoménologique[6],[5] dans le sens où il décrit un phénomène sans préciser le mécanisme qui le cause. Ainsi, il a l'avantage de pouvoir être utilisé comme approximation pour de nombreux systèmes plus complexes, mais son pouvoir prédictif est assez faible. Même s'il n'est pas conçu pour un mécanisme particulier, il est cependant possible de proposer plusieurs interprétations mécanistiques.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le modèle de compétition de Lotka-Volterra est phénoménologique, dans le sens où il décrit un phénomène sans préciser le mécanisme qui le cause. Ainsi, il a l'avantage de pouvoir être utilisé comme approximation pour de nombreux systèmes plus complexes, mais son pouvoir prédictif est assez faible. Même s'il n'est pas conçu pour un mécanisme particulier, il est cependant possible de proposer plusieurs interprétations mécanistiques.
 Compétition directe : les individus ont un effet direct et négatif les uns sur les autres. On peut considérer les individus comme se déplaçant de façon aléatoire sur une surface, les équations de Lotka-Volterra peuvent ainsi être vues comme décrivant la cinétique de ce système. Dans ce cas 
           α
             i
@@ -1019,7 +1119,7 @@
         i
     {\displaystyle i}
 .
-Compétition indirecte pour une ressource[7] : il est possible d'obtenir la même dynamique en supposant que les croissances des différentes espèces dépendent d'une ou plusieurs ressources pour lesquelles elles sont en compétition. Dans ce cas les paramètres utilisés ici (
+Compétition indirecte pour une ressource : il est possible d'obtenir la même dynamique en supposant que les croissances des différentes espèces dépendent d'une ou plusieurs ressources pour lesquelles elles sont en compétition. Dans ce cas les paramètres utilisés ici (
         α
         ,
         r
